--- a/biology/Botanique/Eremosynaceae/Eremosynaceae.xlsx
+++ b/biology/Botanique/Eremosynaceae/Eremosynaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Érémosynacées ne comprend qu'une seule espèce : Eremosyne pectinata. Ce sont des plantes herbacées annuelles, endémiques de l'ouest de l'Australie.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Eremosyne (en) décrit par Carl von Hügel en 1837, sans qu'il explicite ce nom[1], qui peut être issu du grec έρημος / érimos, « désert ; solitaire » et du suffixe -ςυν / -syn, « avec ; ensemble », en référence possible à l'habitat naturel de la plante.
-C'est le botaniste autrichien Stephan Endlicher qui décrivit la seule espèce du genre Eremosyne pectinata (es)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Eremosyne (en) décrit par Carl von Hügel en 1837, sans qu'il explicite ce nom, qui peut être issu du grec έρημος / érimos, « désert ; solitaire » et du suffixe -ςυν / -syn, « avec ; ensemble », en référence possible à l'habitat naturel de la plante.
+C'est le botaniste autrichien Stephan Endlicher qui décrivit la seule espèce du genre Eremosyne pectinata (es).
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] la situe à la base des Campanulidées (Euasterids II).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) la situe à la base des Campanulidées (Euasterids II).
 Angiosperm Phylogeny Website [18 août 2009] ne reconnait pas les Eremosynaceae et inclut Eremosyne dans la famille des Escalloniacées.
-De même pour la classification phylogénétique APG III (2009)[3] cette famille est invalide et le genre Eremosyne est incorporé à la famille des Escalloniaceae.
+De même pour la classification phylogénétique APG III (2009) cette famille est invalide et le genre Eremosyne est incorporé à la famille des Escalloniaceae.
 </t>
         </is>
       </c>
